--- a/002.Artificial_Intelligence/011.nlp/nlp/案例场景.xlsx
+++ b/002.Artificial_Intelligence/011.nlp/nlp/案例场景.xlsx
@@ -1136,8 +1136,8 @@
   <sheetPr/>
   <dimension ref="B8:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="17" ht="27" spans="3:9">
+    <row r="17" spans="3:9">
       <c r="C17" s="2" t="s">
         <v>15</v>
       </c>

--- a/002.Artificial_Intelligence/011.nlp/nlp/案例场景.xlsx
+++ b/002.Artificial_Intelligence/011.nlp/nlp/案例场景.xlsx
@@ -27,7 +27,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+  <si>
+    <t>基本任务</t>
+  </si>
   <si>
     <t>分词</t>
   </si>
@@ -56,7 +59,7 @@
     <t>词性标注</t>
   </si>
   <si>
-    <t>隐马尔可夫/jieba</t>
+    <t>隐马尔可夫||jieba</t>
   </si>
   <si>
     <t>nlp-词性标注</t>
@@ -151,8 +154,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -665,142 +676,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -820,7 +837,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1137,7 +1154,7 @@
   <dimension ref="B8:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -1151,216 +1168,226 @@
     <col min="9" max="9" width="20.929203539823" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="3:9">
-      <c r="C8" s="1" t="s">
+    <row r="8" spans="2:9">
+      <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="I8" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="3:9">
-      <c r="C9" s="1" t="s">
+    <row r="9" spans="2:9">
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="3"/>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="I10" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="3:9">
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="1" t="s">
+    <row r="11" spans="2:9">
+      <c r="B11" s="3"/>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="I11" s="2"/>
     </row>
-    <row r="11" spans="3:9">
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1" t="s">
+    <row r="12" spans="2:9">
+      <c r="B12" s="3"/>
+      <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="3:9">
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="1"/>
+      <c r="H12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2"/>
     </row>
     <row r="17" spans="3:9">
-      <c r="C17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="G17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="H17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="4"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="2:9">
-      <c r="B21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5" t="s">
+      <c r="D21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="5"/>
+      <c r="G21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" ht="27" spans="2:9">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>28</v>
+      <c r="H22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="27" spans="2:9">
-      <c r="B24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="B24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="6" t="s">
+      <c r="D24" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="6"/>
+      <c r="H24" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="8"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="B26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" s="6"/>
+      <c r="I26" s="8"/>
     </row>
     <row r="40" spans="6:6">
       <c r="F40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:B12"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/002.Artificial_Intelligence/011.nlp/nlp/案例场景.xlsx
+++ b/002.Artificial_Intelligence/011.nlp/nlp/案例场景.xlsx
@@ -27,54 +27,197 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
-  <si>
-    <t>基本任务</t>
-  </si>
-  <si>
-    <t>分词</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+  <si>
+    <t>基础加工</t>
+  </si>
+  <si>
+    <t>中文分词</t>
+  </si>
+  <si>
+    <t>影响对 "文本语义" 的理解</t>
   </si>
   <si>
     <t>序列标注任务</t>
   </si>
   <si>
+    <t>最大正向匹配||
+最大逆向匹配||
+"jieba分词库"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词典</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+需要假设：最长词为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>个字</t>
+    </r>
+  </si>
+  <si>
+    <t>jieba内部的默认词典进行分词、jieba也可以使用外部词典</t>
+  </si>
+  <si>
+    <t>本机-CPU</t>
+  </si>
+  <si>
+    <t>词频统计</t>
+  </si>
+  <si>
+    <t>可以根据 "词频" 判断 "文章的主要意思"</t>
+  </si>
+  <si>
     <t>jieba</t>
   </si>
   <si>
-    <t>nlp-分词</t>
-  </si>
-  <si>
-    <t>本机-CPU</t>
-  </si>
-  <si>
-    <t>第三方库</t>
-  </si>
-  <si>
-    <t>词频统计</t>
-  </si>
-  <si>
-    <t>nlp-词频统计</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词典</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,停用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+需指定：出现次数最多的前</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>个词</t>
+    </r>
+  </si>
+  <si>
+    <t>先进行分词，然后词频统计</t>
   </si>
   <si>
     <t>词性标注</t>
   </si>
   <si>
-    <t>隐马尔可夫||jieba</t>
-  </si>
-  <si>
-    <t>nlp-词性标注</t>
+    <t xml:space="preserve">
+jieba</t>
+  </si>
+  <si>
+    <t>先分词，再做词性标注</t>
+  </si>
+  <si>
+    <t xml:space="preserve">也可以使用 "隐马尔可夫" </t>
+  </si>
+  <si>
+    <t>语音识别</t>
+  </si>
+  <si>
+    <t>隐马尔可夫</t>
   </si>
   <si>
     <t>关键词提取</t>
   </si>
   <si>
-    <t>TF-IDF</t>
-  </si>
-  <si>
-    <t>nlp-关键词提取</t>
-  </si>
-  <si>
-    <t>TextRank</t>
+    <t>TF-IDF||TextRank</t>
   </si>
   <si>
     <t>给定一个词找到一个相似的词</t>
@@ -323,7 +466,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,7 +475,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,7 +843,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,16 +867,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -724,89 +885,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -816,20 +977,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -837,7 +995,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1151,242 +1330,262 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B8:I40"/>
+  <dimension ref="A8:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="46.4601769911504" customWidth="1"/>
-    <col min="4" max="4" width="25.5398230088496" customWidth="1"/>
-    <col min="5" max="5" width="47.5575221238938" customWidth="1"/>
-    <col min="6" max="6" width="22.858407079646" customWidth="1"/>
-    <col min="7" max="7" width="29.6902654867257" customWidth="1"/>
-    <col min="8" max="8" width="13.3628318584071" customWidth="1"/>
-    <col min="9" max="9" width="20.929203539823" customWidth="1"/>
+    <col min="2" max="2" width="46.4601769911504" customWidth="1"/>
+    <col min="3" max="3" width="39.7433628318584" customWidth="1"/>
+    <col min="4" max="4" width="17.5486725663717" customWidth="1"/>
+    <col min="5" max="5" width="22.858407079646" customWidth="1"/>
+    <col min="6" max="6" width="37.9380530973451" customWidth="1"/>
+    <col min="7" max="7" width="32.1504424778761" customWidth="1"/>
+    <col min="8" max="8" width="29.6902654867257" customWidth="1"/>
+    <col min="9" max="9" width="13.3628318584071" customWidth="1"/>
+    <col min="10" max="10" width="30.7787610619469" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:9">
-      <c r="B8" s="1" t="s">
+    <row r="8" ht="54" customHeight="1" spans="1:10">
+      <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="G8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="3"/>
+    <row r="9" ht="39" customHeight="1" spans="1:10">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" ht="62" customHeight="1" spans="1:10">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>6</v>
+      <c r="E10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="3"/>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>6</v>
-      </c>
+    <row r="11" ht="45" customHeight="1" spans="1:10">
+      <c r="A11" s="1"/>
+      <c r="B11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
     </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="3"/>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="2"/>
+    <row r="12" ht="51" customHeight="1" spans="1:10">
+      <c r="A12" s="1"/>
+      <c r="B12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="9"/>
     </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="3"/>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="2"/>
+    <row r="17" spans="2:10">
+      <c r="B17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="10"/>
     </row>
-    <row r="17" spans="3:9">
-      <c r="C17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="4"/>
+    <row r="21" ht="20" customHeight="1" spans="1:10">
+      <c r="A21" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="13"/>
     </row>
-    <row r="21" ht="20" customHeight="1" spans="2:9">
-      <c r="B21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
+    <row r="22" ht="27" spans="1:10">
+      <c r="A22" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="7"/>
+      <c r="J22" s="15" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="22" ht="27" spans="2:9">
-      <c r="B22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>29</v>
-      </c>
+    <row r="24" ht="27" spans="1:10">
+      <c r="A24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" s="14"/>
     </row>
-    <row r="24" ht="27" spans="2:9">
-      <c r="B24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="9" t="s">
+    <row r="26" spans="1:10">
+      <c r="A26" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="10" t="s">
+      <c r="B26" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I24" s="8"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="14"/>
     </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="40" spans="6:6">
-      <c r="F40" t="s">
-        <v>37</v>
+    <row r="40" spans="5:5">
+      <c r="E40" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="A8:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/002.Artificial_Intelligence/011.nlp/nlp/案例场景.xlsx
+++ b/002.Artificial_Intelligence/011.nlp/nlp/案例场景.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>基础加工</t>
   </si>
@@ -198,6 +198,9 @@
     <t>词性标注</t>
   </si>
   <si>
+    <t>用的少，进入深度学习后不太关注词性</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 jieba</t>
   </si>
@@ -208,12 +211,6 @@
     <t xml:space="preserve">也可以使用 "隐马尔可夫" </t>
   </si>
   <si>
-    <t>语音识别</t>
-  </si>
-  <si>
-    <t>隐马尔可夫</t>
-  </si>
-  <si>
     <t>关键词提取</t>
   </si>
   <si>
@@ -275,13 +272,26 @@
     <t>参考md文件</t>
   </si>
   <si>
-    <t>令牌分类——从快递单信息中抽取人名、地址、电话号码</t>
+    <t>命名实体识别</t>
   </si>
   <si>
     <t>ERNIE - 基于Transformer</t>
   </si>
   <si>
+    <t>令牌分类——
+从快递单信息中抽取人名、地址、电话号码</t>
+  </si>
+  <si>
     <t>nlp-命名实体识别</t>
+  </si>
+  <si>
+    <t>语音识别</t>
+  </si>
+  <si>
+    <t>隐马尔可夫</t>
+  </si>
+  <si>
+    <t>但 隐马尔可夫 现在用的少。神经网络做的更好。</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -297,7 +307,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +319,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.35"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -487,25 +504,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.05"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,137 +854,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -986,29 +1003,32 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1016,7 +1036,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1330,10 +1353,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A8:J40"/>
+  <dimension ref="A8:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -1343,7 +1366,7 @@
     <col min="4" max="4" width="17.5486725663717" customWidth="1"/>
     <col min="5" max="5" width="22.858407079646" customWidth="1"/>
     <col min="6" max="6" width="37.9380530973451" customWidth="1"/>
-    <col min="7" max="7" width="32.1504424778761" customWidth="1"/>
+    <col min="7" max="7" width="38.2566371681416" customWidth="1"/>
     <col min="8" max="8" width="29.6902654867257" customWidth="1"/>
     <col min="9" max="9" width="13.3628318584071" customWidth="1"/>
     <col min="10" max="10" width="30.7787610619469" customWidth="1"/>
@@ -1406,186 +1429,196 @@
       <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="D10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>14</v>
+      <c r="E10" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="11" ht="45" customHeight="1" spans="1:10">
+    <row r="11" ht="51" customHeight="1" spans="1:10">
       <c r="A11" s="1"/>
-      <c r="B11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="8"/>
     </row>
-    <row r="12" ht="51" customHeight="1" spans="1:10">
-      <c r="A12" s="1"/>
-      <c r="B12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
+    <row r="16" spans="2:10">
+      <c r="B16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="20" ht="20" customHeight="1" spans="1:10">
+      <c r="A20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="9"/>
+      <c r="J20" s="12"/>
     </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="10"/>
-    </row>
-    <row r="21" ht="20" customHeight="1" spans="1:10">
-      <c r="A21" s="12" t="s">
-        <v>25</v>
+    <row r="21" ht="27" spans="1:10">
+      <c r="A21" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" ht="27" spans="1:10">
+      <c r="A23" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" s="13"/>
+      <c r="B23" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" s="15"/>
     </row>
-    <row r="22" ht="27" spans="1:10">
-      <c r="A22" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="14" t="s">
+    <row r="25" ht="53" customHeight="1" spans="1:10">
+      <c r="A25" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>34</v>
-      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="15"/>
     </row>
-    <row r="24" ht="27" spans="1:10">
-      <c r="A24" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I24" s="16" t="s">
+    <row r="31" ht="43" customHeight="1" spans="2:10">
+      <c r="B31" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="15"/>
+      <c r="G31" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+    </row>
+    <row r="32" ht="30" customHeight="1" spans="2:2">
+      <c r="B32" t="s">
         <v>38</v>
       </c>
-      <c r="J24" s="14"/>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J26" s="14"/>
-    </row>
-    <row r="40" spans="5:5">
-      <c r="E40" t="s">
-        <v>42</v>
+    <row r="39" spans="5:5">
+      <c r="E39" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/002.Artificial_Intelligence/011.nlp/nlp/案例场景.xlsx
+++ b/002.Artificial_Intelligence/011.nlp/nlp/案例场景.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>基础加工</t>
   </si>
@@ -35,10 +35,13 @@
     <t>中文分词</t>
   </si>
   <si>
+    <t>序列标注任务</t>
+  </si>
+  <si>
     <t>影响对 "文本语义" 的理解</t>
   </si>
   <si>
-    <t>序列标注任务</t>
+    <t>基于规则</t>
   </si>
   <si>
     <t>最大正向匹配||
@@ -113,6 +116,9 @@
     <t>可以根据 "词频" 判断 "文章的主要意思"</t>
   </si>
   <si>
+    <t>基于概率</t>
+  </si>
+  <si>
     <t>jieba</t>
   </si>
   <si>
@@ -205,6 +211,9 @@
 jieba</t>
   </si>
   <si>
+    <t>需要先分词</t>
+  </si>
+  <si>
     <t>先分词，再做词性标注</t>
   </si>
   <si>
@@ -214,7 +223,119 @@
     <t>关键词提取</t>
   </si>
   <si>
-    <t>TF-IDF||TextRank</t>
+    <t>对文本“聚类、分类、自动摘要”。
+判断“两个文章表达内容是否相似”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无监督
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TF-IDF（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通过公式计算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）
+TextRank（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通过打分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）（轻量级）（jieba）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（1）需要先分词
+（2）TF-IDF-需要</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">语料库
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（3）TextRank 需要指定</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>窗口大小</t>
+    </r>
+  </si>
+  <si>
+    <t>分母+1 防止分母为0 ，拉普拉斯平滑</t>
+  </si>
+  <si>
+    <t>词嵌入训练/词向量训练</t>
   </si>
   <si>
     <t>给定一个词找到一个相似的词</t>
@@ -223,9 +344,6 @@
     <t>Word2Vec</t>
   </si>
   <si>
-    <t>词嵌入训练/词向量训练</t>
-  </si>
-  <si>
     <t>AI-studio</t>
   </si>
   <si>
@@ -239,9 +357,6 @@
   </si>
   <si>
     <t>jieba/sklearn</t>
-  </si>
-  <si>
-    <t>nlp-文本分类</t>
   </si>
   <si>
     <t>深度学习</t>
@@ -260,13 +375,14 @@
 多次训练提高精度</t>
   </si>
   <si>
+    <t>文本情感分析</t>
+  </si>
+  <si>
     <t>利用训练数据集，对模型训练，从而实现对中文评论语句情感分析。——情绪分为正面、负面两种</t>
   </si>
   <si>
-    <t>LSTM-长短期记忆</t>
-  </si>
-  <si>
-    <t>nlp-文本情感分析</t>
+    <t xml:space="preserve">
+LSTM-长短期记忆（paddlepaddle）</t>
   </si>
   <si>
     <t>参考md文件</t>
@@ -280,9 +396,6 @@
   <si>
     <t>令牌分类——
 从快递单信息中抽取人名、地址、电话号码</t>
-  </si>
-  <si>
-    <t>nlp-命名实体识别</t>
   </si>
   <si>
     <t>语音识别</t>
@@ -324,6 +437,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.35"/>
       <name val="宋体"/>
@@ -984,7 +1098,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -994,6 +1108,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1012,11 +1129,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1024,11 +1153,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1036,7 +1168,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1353,272 +1491,306 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A8:J39"/>
+  <dimension ref="B8:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="46.4601769911504" customWidth="1"/>
-    <col min="3" max="3" width="39.7433628318584" customWidth="1"/>
+    <col min="1" max="1" width="3.85840707964602" customWidth="1"/>
+    <col min="3" max="3" width="39.7079646017699" customWidth="1"/>
     <col min="4" max="4" width="17.5486725663717" customWidth="1"/>
-    <col min="5" max="5" width="22.858407079646" customWidth="1"/>
-    <col min="6" max="6" width="37.9380530973451" customWidth="1"/>
-    <col min="7" max="7" width="38.2566371681416" customWidth="1"/>
-    <col min="8" max="8" width="29.6902654867257" customWidth="1"/>
-    <col min="9" max="9" width="13.3628318584071" customWidth="1"/>
-    <col min="10" max="10" width="30.7787610619469" customWidth="1"/>
+    <col min="5" max="5" width="45.8230088495575" customWidth="1"/>
+    <col min="6" max="6" width="14.8495575221239" customWidth="1"/>
+    <col min="7" max="7" width="39.7079646017699" customWidth="1"/>
+    <col min="8" max="8" width="37.9380530973451" customWidth="1"/>
+    <col min="9" max="9" width="38.2566371681416" customWidth="1"/>
+    <col min="10" max="10" width="13.3628318584071" customWidth="1"/>
+    <col min="11" max="11" width="32.9469026548673" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" ht="54" customHeight="1" spans="1:10">
-      <c r="A8" s="1" t="s">
+    <row r="8" ht="54" customHeight="1" spans="2:11">
+      <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" ht="39" customHeight="1" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" ht="39" customHeight="1" spans="2:11">
+      <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" ht="62" customHeight="1" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" ht="62" customHeight="1" spans="2:11">
+      <c r="B10" s="1"/>
       <c r="C10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="5" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" ht="51" customHeight="1" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="H10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8" t="s">
+      <c r="I10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="9" t="s">
+      <c r="J10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
+    </row>
+    <row r="11" ht="53" customHeight="1" spans="2:11">
+      <c r="B11" s="1"/>
+      <c r="C11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="F11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="20" ht="20" customHeight="1" spans="1:10">
-      <c r="A20" s="11" t="s">
+      <c r="G11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="H11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12" t="s">
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="3:11">
+      <c r="C16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12" t="s">
+      <c r="D16" s="14"/>
+      <c r="E16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" ht="27" spans="1:10">
-      <c r="A21" s="13" t="s">
+      <c r="F16" s="14"/>
+      <c r="G16" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" ht="20" customHeight="1" spans="2:11">
+      <c r="B20" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13" t="s">
+      <c r="C20" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="14" t="s">
+      <c r="D20" s="17"/>
+      <c r="E20" s="18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" ht="27" spans="1:10">
-      <c r="A23" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="16" t="s">
+      <c r="F20" s="17"/>
+      <c r="G20" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" ht="27" spans="2:11">
+      <c r="B21" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15" t="s">
+      <c r="C21" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="18" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J23" s="15"/>
-    </row>
-    <row r="25" ht="53" customHeight="1" spans="1:10">
-      <c r="A25" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="15" t="s">
+      <c r="F21" s="20"/>
+      <c r="G21" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="17" t="s">
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" ht="54" customHeight="1" spans="2:11">
+      <c r="B23" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="D23" s="21"/>
+      <c r="E23" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="I25" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="J25" s="15"/>
-    </row>
-    <row r="31" ht="43" customHeight="1" spans="2:10">
-      <c r="B31" s="15" t="s">
+      <c r="F23" s="21"/>
+      <c r="G23" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="17" t="s">
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="17" t="s">
+      <c r="K23" s="21"/>
+    </row>
+    <row r="24" ht="34" customHeight="1" spans="5:5">
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" ht="53" customHeight="1" spans="2:11">
+      <c r="B25" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-    </row>
-    <row r="32" ht="30" customHeight="1" spans="2:2">
-      <c r="B32" t="s">
+      <c r="D25" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="5:5">
-      <c r="E39" t="s">
-        <v>45</v>
+      <c r="H25" s="21"/>
+      <c r="I25" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" s="21"/>
+    </row>
+    <row r="31" ht="43" customHeight="1" spans="3:11">
+      <c r="C31" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" s="21"/>
+      <c r="I31" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+    </row>
+    <row r="32" ht="30" customHeight="1" spans="3:3">
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="7:7">
+      <c r="G39" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/002.Artificial_Intelligence/011.nlp/nlp/案例场景.xlsx
+++ b/002.Artificial_Intelligence/011.nlp/nlp/案例场景.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>基础加工</t>
   </si>
@@ -211,7 +211,20 @@
 jieba</t>
   </si>
   <si>
-    <t>需要先分词</t>
+    <r>
+      <t>需要先</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分词</t>
+    </r>
   </si>
   <si>
     <t>先分词，再做词性标注</t>
@@ -232,13 +245,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>TF-IDF（</t>
     </r>
     <r>
@@ -287,14 +293,28 @@
   </si>
   <si>
     <r>
-      <rPr>
+      <t>（1）需要先</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>（1）需要先分词
+      <t>分词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 （2）TF-IDF-需要</t>
     </r>
     <r>
@@ -332,7 +352,8 @@
     </r>
   </si>
   <si>
-    <t>分母+1 防止分母为0 ，拉普拉斯平滑</t>
+    <t>分母+1 防止分母为0 ，拉普拉斯平滑
+（2）TF-IDF:将文本转换成向量形式</t>
   </si>
   <si>
     <t>词嵌入训练/词向量训练</t>
@@ -350,19 +371,93 @@
     <t>机器学习</t>
   </si>
   <si>
-    <t>文本分类——垃圾邮件识别-邮件内容</t>
-  </si>
-  <si>
-    <t>贝叶斯模型/支持向量机</t>
+    <t>文本分类</t>
+  </si>
+  <si>
+    <t>垃圾邮件识别-邮件内容</t>
+  </si>
+  <si>
+    <t>贝叶斯模型
+支持向量机</t>
   </si>
   <si>
     <t>jieba/sklearn</t>
   </si>
   <si>
+    <r>
+      <t>（1）需要先分词
+（2）需要</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>提取TF-IDF值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>作为特征，（用到了</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>语料库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5000个正常邮件，5001个垃圾邮件）
+（3）需要</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>训练模型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（全部样本，没有轮数）</t>
+    </r>
+  </si>
+  <si>
     <t>深度学习</t>
   </si>
   <si>
-    <t>文本分类——新闻分类-新闻标题</t>
+    <t>新闻分类-新闻标题</t>
   </si>
   <si>
     <t>Text CNN</t>
@@ -597,7 +692,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -631,6 +726,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,7 +1075,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -998,16 +1099,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1016,89 +1117,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1126,6 +1227,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1153,31 +1257,43 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1494,21 +1610,21 @@
   <dimension ref="B8:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.85840707964602" customWidth="1"/>
     <col min="3" max="3" width="39.7079646017699" customWidth="1"/>
-    <col min="4" max="4" width="17.5486725663717" customWidth="1"/>
+    <col min="4" max="4" width="24.3805309734513" customWidth="1"/>
     <col min="5" max="5" width="45.8230088495575" customWidth="1"/>
     <col min="6" max="6" width="14.8495575221239" customWidth="1"/>
     <col min="7" max="7" width="39.7079646017699" customWidth="1"/>
-    <col min="8" max="8" width="37.9380530973451" customWidth="1"/>
+    <col min="8" max="8" width="42.6017699115044" customWidth="1"/>
     <col min="9" max="9" width="38.2566371681416" customWidth="1"/>
     <col min="10" max="10" width="13.3628318584071" customWidth="1"/>
-    <col min="11" max="11" width="32.9469026548673" customWidth="1"/>
+    <col min="11" max="11" width="42.8407079646018" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" ht="54" customHeight="1" spans="2:11">
@@ -1582,7 +1698,7 @@
       <c r="G10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="9" t="s">
         <v>18</v>
       </c>
       <c r="I10" s="6" t="s">
@@ -1595,197 +1711,203 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" ht="53" customHeight="1" spans="2:11">
+    <row r="11" ht="76" customHeight="1" spans="2:11">
       <c r="B11" s="1"/>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9" t="s">
+      <c r="I11" s="10"/>
+      <c r="J11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="28" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="5:5">
-      <c r="E12" s="13"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="5:5">
-      <c r="E13" s="13"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="5:5">
-      <c r="E14" s="13"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="5:5">
-      <c r="E15" s="13"/>
+      <c r="E15" s="14"/>
     </row>
     <row r="16" spans="3:11">
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15" t="s">
+      <c r="D16" s="15"/>
+      <c r="E16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14" t="s">
+      <c r="F16" s="15"/>
+      <c r="G16" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14" t="s">
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="14"/>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" spans="5:5">
-      <c r="E17" s="13"/>
+      <c r="E17" s="14"/>
     </row>
     <row r="18" spans="5:5">
-      <c r="E18" s="13"/>
+      <c r="E18" s="14"/>
     </row>
     <row r="19" spans="5:5">
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20" ht="20" customHeight="1" spans="2:11">
-      <c r="B20" s="16" t="s">
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" ht="108" customHeight="1" spans="2:11">
+      <c r="B20" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18" t="s">
+      <c r="D20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="19" t="s">
+      <c r="E20" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17" t="s">
+      <c r="F20" s="18"/>
+      <c r="G20" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="17"/>
-    </row>
-    <row r="21" ht="27" spans="2:11">
-      <c r="B21" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="18" t="s">
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" ht="30" customHeight="1" spans="2:11">
+      <c r="B21" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20" t="s">
+      <c r="C21" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="17" t="s">
+      <c r="E21" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="K21" s="25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5">
-      <c r="E22" s="13"/>
+      <c r="K21" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" ht="34" customHeight="1" spans="5:5">
+      <c r="E22" s="14"/>
     </row>
     <row r="23" ht="54" customHeight="1" spans="2:11">
-      <c r="B23" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="22" t="s">
+      <c r="B23" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="24"/>
+    </row>
+    <row r="24" ht="34" customHeight="1" spans="5:5">
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" ht="53" customHeight="1" spans="2:11">
+      <c r="B25" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23" s="21"/>
-    </row>
-    <row r="24" ht="34" customHeight="1" spans="5:5">
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" ht="53" customHeight="1" spans="2:11">
-      <c r="B25" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="24" t="s">
+      <c r="H25" s="24"/>
+      <c r="I25" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="J25" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25" s="21"/>
+      <c r="K25" s="24"/>
     </row>
     <row r="31" ht="43" customHeight="1" spans="3:11">
-      <c r="C31" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="H31" s="21"/>
-      <c r="I31" s="22" t="s">
+      <c r="C31" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="24"/>
+      <c r="I31" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
     </row>
     <row r="32" ht="30" customHeight="1" spans="3:3">
       <c r="C32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="7:7">
       <c r="G39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/002.Artificial_Intelligence/011.nlp/nlp/案例场景.xlsx
+++ b/002.Artificial_Intelligence/011.nlp/nlp/案例场景.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
   <si>
     <t>基础加工</t>
   </si>
@@ -212,6 +212,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>需要先</t>
     </r>
     <r>
@@ -245,6 +252,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>TF-IDF（</t>
     </r>
     <r>
@@ -356,18 +370,6 @@
 （2）TF-IDF:将文本转换成向量形式</t>
   </si>
   <si>
-    <t>词嵌入训练/词向量训练</t>
-  </si>
-  <si>
-    <t>给定一个词找到一个相似的词</t>
-  </si>
-  <si>
-    <t>Word2Vec</t>
-  </si>
-  <si>
-    <t>AI-studio</t>
-  </si>
-  <si>
     <t>机器学习</t>
   </si>
   <si>
@@ -385,6 +387,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>（1）需要先分词
 （2）需要</t>
     </r>
@@ -452,6 +461,73 @@
       </rPr>
       <t>（全部样本，没有轮数）</t>
     </r>
+  </si>
+  <si>
+    <t>词嵌入训练/词向量训练</t>
+  </si>
+  <si>
+    <t>词嵌入（word embedding）</t>
+  </si>
+  <si>
+    <t>给定一个词找到一个相似的词</t>
+  </si>
+  <si>
+    <t>Word2Vec（NNLM的升级版）</t>
+  </si>
+  <si>
+    <r>
+      <t>维度（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50~300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>维）
+（1）需要</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>语料库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>AI-studio</t>
+  </si>
+  <si>
+    <t>“Word2Vec”是“NNLM-神经网络语言模型”的升级版</t>
   </si>
   <si>
     <t>深度学习</t>
@@ -692,7 +768,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -719,19 +795,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,7 +1145,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1099,16 +1169,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1117,89 +1187,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1246,54 +1316,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1607,17 +1668,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B8:K39"/>
+  <dimension ref="B8:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.85840707964602" customWidth="1"/>
     <col min="3" max="3" width="39.7079646017699" customWidth="1"/>
-    <col min="4" max="4" width="24.3805309734513" customWidth="1"/>
+    <col min="4" max="4" width="28.9203539823009" customWidth="1"/>
     <col min="5" max="5" width="45.8230088495575" customWidth="1"/>
     <col min="6" max="6" width="14.8495575221239" customWidth="1"/>
     <col min="7" max="7" width="39.7079646017699" customWidth="1"/>
@@ -1733,7 +1794,7 @@
       <c r="J11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="28" t="s">
+      <c r="K11" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1746,168 +1807,177 @@
     <row r="14" spans="5:5">
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="5:5">
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="3:11">
-      <c r="C16" s="15" t="s">
+    <row r="15" ht="81" spans="2:11">
+      <c r="B15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16" t="s">
+      <c r="C15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15" t="s">
+      <c r="D15" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15" t="s">
+      <c r="E15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="14"/>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" s="14"/>
     </row>
-    <row r="18" spans="5:5">
-      <c r="E18" s="14"/>
+    <row r="18" ht="47" customHeight="1" spans="3:11">
+      <c r="C18" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19" spans="5:5">
       <c r="E19" s="14"/>
     </row>
-    <row r="20" ht="108" customHeight="1" spans="2:11">
-      <c r="B20" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="18"/>
-    </row>
-    <row r="21" ht="30" customHeight="1" spans="2:11">
-      <c r="B21" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="22" t="s">
+    <row r="20" spans="5:5">
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" ht="30" customHeight="1" spans="2:11">
+      <c r="B22" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22" t="s">
+      <c r="K22" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" ht="34" customHeight="1" spans="5:5">
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" ht="54" customHeight="1" spans="2:11">
+      <c r="B24" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" ht="34" customHeight="1" spans="5:5">
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" ht="54" customHeight="1" spans="2:11">
-      <c r="B23" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="26" t="s">
+      <c r="C24" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="23"/>
+      <c r="G24" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" s="23"/>
+    </row>
+    <row r="25" ht="34" customHeight="1" spans="5:5">
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" ht="53" customHeight="1" spans="2:11">
+      <c r="B26" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23" s="24"/>
-    </row>
-    <row r="24" ht="34" customHeight="1" spans="5:5">
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" ht="53" customHeight="1" spans="2:11">
-      <c r="B25" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="25" t="s">
+      <c r="H26" s="23"/>
+      <c r="I26" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="K25" s="24"/>
-    </row>
-    <row r="31" ht="43" customHeight="1" spans="3:11">
-      <c r="C31" s="24" t="s">
+      <c r="K26" s="23"/>
+    </row>
+    <row r="32" ht="43" customHeight="1" spans="3:11">
+      <c r="C32" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" s="23"/>
+      <c r="I32" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+    </row>
+    <row r="33" ht="30" customHeight="1" spans="3:3">
+      <c r="C33" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="H31" s="24"/>
-      <c r="I31" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-    </row>
-    <row r="32" ht="30" customHeight="1" spans="3:3">
-      <c r="C32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="7:7">
-      <c r="G39" t="s">
-        <v>52</v>
+    </row>
+    <row r="40" spans="7:7">
+      <c r="G40" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/002.Artificial_Intelligence/011.nlp/nlp/案例场景.xlsx
+++ b/002.Artificial_Intelligence/011.nlp/nlp/案例场景.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>基础加工</t>
   </si>
@@ -307,6 +307,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>（1）需要先</t>
     </r>
     <r>
@@ -379,11 +386,21 @@
     <t>垃圾邮件识别-邮件内容</t>
   </si>
   <si>
-    <t>贝叶斯模型
+    <r>
+      <t>贝叶斯模型
 支持向量机</t>
-  </si>
-  <si>
-    <t>jieba/sklearn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+jieba/sklearn</t>
+    </r>
   </si>
   <si>
     <r>
@@ -476,6 +493,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>维度（</t>
     </r>
     <r>
@@ -536,10 +560,20 @@
     <t>新闻分类-新闻标题</t>
   </si>
   <si>
-    <t>Text CNN</t>
-  </si>
-  <si>
-    <t>paddlepaddle</t>
+    <r>
+      <t>Text CNN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+paddlepaddle</t>
+    </r>
   </si>
   <si>
     <t>短文本分类等问题
@@ -556,6 +590,10 @@
 LSTM-长短期记忆（paddlepaddle）</t>
   </si>
   <si>
+    <t>用一系列 "属性" 来描述一个词。
+这些“属性”的值是多少，是通过训练得到的。</t>
+  </si>
+  <si>
     <t>参考md文件</t>
   </si>
   <si>
@@ -563,6 +601,9 @@
   </si>
   <si>
     <t>ERNIE - 基于Transformer</t>
+  </si>
+  <si>
+    <t>paddlepaddle</t>
   </si>
   <si>
     <t>令牌分类——
@@ -1269,7 +1310,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1345,6 +1386,9 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1353,6 +1397,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1670,8 +1717,8 @@
   <sheetPr/>
   <dimension ref="B8:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -1683,7 +1730,7 @@
     <col min="6" max="6" width="14.8495575221239" customWidth="1"/>
     <col min="7" max="7" width="39.7079646017699" customWidth="1"/>
     <col min="8" max="8" width="42.6017699115044" customWidth="1"/>
-    <col min="9" max="9" width="38.2566371681416" customWidth="1"/>
+    <col min="9" max="9" width="43.4513274336283" customWidth="1"/>
     <col min="10" max="10" width="13.3628318584071" customWidth="1"/>
     <col min="11" max="11" width="42.8407079646018" customWidth="1"/>
   </cols>
@@ -1817,15 +1864,13 @@
       <c r="D15" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="17"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="18" t="s">
+      <c r="H15" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>32</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="16" t="s">
@@ -1841,27 +1886,27 @@
     </row>
     <row r="18" ht="47" customHeight="1" spans="3:11">
       <c r="C18" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="E18" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>35</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="22" t="s">
         <v>36</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>37</v>
       </c>
       <c r="I18" s="19"/>
       <c r="J18" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="21" t="s">
         <v>38</v>
-      </c>
-      <c r="K18" s="21" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="19" spans="5:5">
@@ -1873,30 +1918,28 @@
     <row r="21" spans="5:5">
       <c r="E21" s="14"/>
     </row>
-    <row r="22" ht="30" customHeight="1" spans="2:11">
+    <row r="22" ht="40" customHeight="1" spans="2:11">
       <c r="B22" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="25" t="s">
         <v>41</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23" t="s">
-        <v>43</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
-      <c r="J22" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="K22" s="25" t="s">
-        <v>44</v>
+      <c r="J22" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" ht="34" customHeight="1" spans="5:5">
@@ -1904,23 +1947,25 @@
     </row>
     <row r="24" ht="54" customHeight="1" spans="2:11">
       <c r="B24" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="23"/>
+      <c r="G24" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="26" t="s">
+      <c r="H24" s="23"/>
+      <c r="I24" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="25" t="s">
+      <c r="J24" s="30" t="s">
         <v>47</v>
-      </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="28" t="s">
-        <v>48</v>
       </c>
       <c r="K24" s="23"/>
     </row>
@@ -1929,27 +1974,27 @@
     </row>
     <row r="26" ht="53" customHeight="1" spans="2:11">
       <c r="B26" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F26" s="23"/>
       <c r="G26" s="23" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H26" s="23"/>
-      <c r="I26" s="25" t="s">
+      <c r="I26" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J26" s="28" t="s">
-        <v>48</v>
+      <c r="J26" s="30" t="s">
+        <v>47</v>
       </c>
       <c r="K26" s="23"/>
     </row>
@@ -1960,11 +2005,11 @@
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="26" t="s">
         <v>53</v>
       </c>
       <c r="H32" s="23"/>
-      <c r="I32" s="25" t="s">
+      <c r="I32" s="26" t="s">
         <v>54</v>
       </c>
       <c r="J32" s="23"/>
@@ -1972,7 +2017,7 @@
     </row>
     <row r="33" ht="30" customHeight="1" spans="3:3">
       <c r="C33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="7:7">

--- a/002.Artificial_Intelligence/011.nlp/nlp/案例场景.xlsx
+++ b/002.Artificial_Intelligence/011.nlp/nlp/案例场景.xlsx
@@ -387,6 +387,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>贝叶斯模型
 支持向量机</t>
     </r>
@@ -561,6 +569,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Text CNN</t>
     </r>
     <r>
@@ -1310,7 +1326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1392,14 +1408,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1717,8 +1727,8 @@
   <sheetPr/>
   <dimension ref="B8:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -1935,7 +1945,7 @@
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
-      <c r="J22" s="28" t="s">
+      <c r="J22" s="27" t="s">
         <v>37</v>
       </c>
       <c r="K22" s="26" t="s">
@@ -1953,7 +1963,7 @@
         <v>43</v>
       </c>
       <c r="D24" s="23"/>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="25" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="23"/>
@@ -1961,10 +1971,10 @@
         <v>45</v>
       </c>
       <c r="H24" s="23"/>
-      <c r="I24" s="29" t="s">
+      <c r="I24" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="J24" s="30" t="s">
+      <c r="J24" s="28" t="s">
         <v>47</v>
       </c>
       <c r="K24" s="23"/>
@@ -1993,7 +2003,7 @@
       <c r="I26" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J26" s="30" t="s">
+      <c r="J26" s="28" t="s">
         <v>47</v>
       </c>
       <c r="K26" s="23"/>

--- a/002.Artificial_Intelligence/011.nlp/nlp/案例场景.xlsx
+++ b/002.Artificial_Intelligence/011.nlp/nlp/案例场景.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>基础加工</t>
   </si>
@@ -497,17 +497,13 @@
     <t>给定一个词找到一个相似的词</t>
   </si>
   <si>
-    <t>Word2Vec（NNLM的升级版）</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
+    <t>Word2Vec（NNLM的升级版）
+它有两个子模型：
+（1）CBOW 
+（2）Skip-gram</t>
+  </si>
+  <si>
+    <r>
       <t>维度（</t>
     </r>
     <r>
@@ -1727,8 +1723,8 @@
   <sheetPr/>
   <dimension ref="B8:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K42" sqref="A18:K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -1894,7 +1890,7 @@
     <row r="17" spans="5:5">
       <c r="E17" s="14"/>
     </row>
-    <row r="18" ht="47" customHeight="1" spans="3:11">
+    <row r="18" ht="87" customHeight="1" spans="3:11">
       <c r="C18" s="19" t="s">
         <v>32</v>
       </c>
@@ -2025,11 +2021,7 @@
       <c r="J32" s="23"/>
       <c r="K32" s="23"/>
     </row>
-    <row r="33" ht="30" customHeight="1" spans="3:3">
-      <c r="C33" t="s">
-        <v>48</v>
-      </c>
-    </row>
+    <row r="33" ht="30" customHeight="1"/>
     <row r="40" spans="7:7">
       <c r="G40" t="s">
         <v>55</v>

--- a/002.Artificial_Intelligence/011.nlp/nlp/案例场景.xlsx
+++ b/002.Artificial_Intelligence/011.nlp/nlp/案例场景.xlsx
@@ -504,6 +504,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>维度（</t>
     </r>
     <r>
@@ -1723,8 +1730,8 @@
   <sheetPr/>
   <dimension ref="B8:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K42" sqref="A18:K42"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H39" sqref="B27:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>

--- a/002.Artificial_Intelligence/011.nlp/nlp/案例场景.xlsx
+++ b/002.Artificial_Intelligence/011.nlp/nlp/案例场景.xlsx
@@ -219,18 +219,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>需要先</t>
+      <t>需要</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>分词</t>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>先分词</t>
     </r>
   </si>
   <si>
@@ -314,18 +314,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>（1）需要先</t>
+      <t>（1）需要</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>分词</t>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>先分词</t>
     </r>
     <r>
       <rPr>
@@ -419,7 +419,29 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>（1）需要先分词
+      <t>（1）需要</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">先分词
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 （2）需要</t>
     </r>
     <r>
@@ -494,12 +516,13 @@
     <t>词嵌入（word embedding）</t>
   </si>
   <si>
-    <t>给定一个词找到一个相似的词</t>
-  </si>
-  <si>
-    <t>Word2Vec（NNLM的升级版）
+    <t>给定一个词找到一个相似的前k个词</t>
+  </si>
+  <si>
+    <t>库：Gensim 
+模型：Word2Vec（NNLM的升级版）
 它有两个子模型：
-（1）CBOW 
+（1）CBOW //又有两种原理版本
 （2）Skip-gram</t>
   </si>
   <si>
@@ -511,7 +534,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>维度（</t>
+      <t xml:space="preserve">
+（1）需要</t>
     </r>
     <r>
       <rPr>
@@ -522,18 +546,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>50~300</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>维）
-（1）需要</t>
+      <t xml:space="preserve">语料库
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（2）需要</t>
     </r>
     <r>
       <rPr>
@@ -544,7 +568,72 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>语料库</t>
+      <t>先分词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（使用全部的分词进行训练）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（3）指定维度：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100维度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（50~300维）
+（4）指定：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>窗口大小</t>
     </r>
     <r>
       <rPr>
@@ -1730,8 +1819,8 @@
   <sheetPr/>
   <dimension ref="B8:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H39" sqref="B27:H39"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>

--- a/002.Artificial_Intelligence/011.nlp/nlp/案例场景.xlsx
+++ b/002.Artificial_Intelligence/011.nlp/nlp/案例场景.xlsx
@@ -519,11 +519,35 @@
     <t>给定一个词找到一个相似的前k个词</t>
   </si>
   <si>
-    <t>库：Gensim 
+    <r>
+      <t>库：Gensim 
 模型：Word2Vec（NNLM的升级版）
+（它是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>神经网络模型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）
 它有两个子模型：
 （1）CBOW //又有两种原理版本
 （2）Skip-gram</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1482,23 +1506,23 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1820,7 +1844,7 @@
   <dimension ref="B8:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -1986,7 +2010,7 @@
     <row r="17" spans="5:5">
       <c r="E17" s="14"/>
     </row>
-    <row r="18" ht="87" customHeight="1" spans="3:11">
+    <row r="18" ht="98" customHeight="1" spans="3:11">
       <c r="C18" s="19" t="s">
         <v>32</v>
       </c>
@@ -2000,14 +2024,14 @@
       <c r="G18" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="21" t="s">
         <v>36</v>
       </c>
       <c r="I18" s="19"/>
       <c r="J18" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="21" t="s">
+      <c r="K18" s="26" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2021,26 +2045,26 @@
       <c r="E21" s="14"/>
     </row>
     <row r="22" ht="40" customHeight="1" spans="2:11">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="25" t="s">
+      <c r="E22" s="23"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
       <c r="J22" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="K22" s="26" t="s">
+      <c r="K22" s="25" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2048,74 +2072,74 @@
       <c r="E23" s="14"/>
     </row>
     <row r="24" ht="54" customHeight="1" spans="2:11">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="25" t="s">
+      <c r="D24" s="22"/>
+      <c r="E24" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="26" t="s">
+      <c r="F24" s="22"/>
+      <c r="G24" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="26" t="s">
+      <c r="H24" s="22"/>
+      <c r="I24" s="25" t="s">
         <v>46</v>
       </c>
       <c r="J24" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="K24" s="23"/>
+      <c r="K24" s="22"/>
     </row>
     <row r="25" ht="34" customHeight="1" spans="5:5">
       <c r="E25" s="14"/>
     </row>
     <row r="26" ht="53" customHeight="1" spans="2:11">
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23" t="s">
+      <c r="F26" s="22"/>
+      <c r="G26" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="26" t="s">
+      <c r="H26" s="22"/>
+      <c r="I26" s="25" t="s">
         <v>51</v>
       </c>
       <c r="J26" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="K26" s="23"/>
+      <c r="K26" s="22"/>
     </row>
     <row r="32" ht="43" customHeight="1" spans="3:11">
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="26" t="s">
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H32" s="23"/>
-      <c r="I32" s="26" t="s">
+      <c r="H32" s="22"/>
+      <c r="I32" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
     </row>
     <row r="33" ht="30" customHeight="1"/>
     <row r="40" spans="7:7">

--- a/002.Artificial_Intelligence/011.nlp/nlp/案例场景.xlsx
+++ b/002.Artificial_Intelligence/011.nlp/nlp/案例场景.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>基础加工</t>
   </si>
@@ -484,7 +484,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>5000个正常邮件，5001个垃圾邮件）
+      <t>，5000个正常邮件，5001个垃圾邮件）
 （3）需要</t>
     </r>
     <r>
@@ -520,6 +520,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>库：Gensim 
 模型：Word2Vec（NNLM的升级版）
 （它是</t>
@@ -545,7 +552,28 @@
       </rPr>
       <t>）
 它有两个子模型：
-（1）CBOW //又有两种原理版本
+（1）CBOW //又有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>两种原理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>版本（这里使用正常采样版本）
 （2）Skip-gram</t>
     </r>
   </si>
@@ -672,58 +700,197 @@
     </r>
   </si>
   <si>
-    <t>AI-studio</t>
-  </si>
-  <si>
-    <t>“Word2Vec”是“NNLM-神经网络语言模型”的升级版</t>
-  </si>
-  <si>
-    <t>深度学习</t>
-  </si>
-  <si>
-    <t>新闻分类-新闻标题</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Text CNN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-paddlepaddle</t>
-    </r>
-  </si>
-  <si>
-    <t>短文本分类等问题
-多次训练提高精度</t>
-  </si>
-  <si>
-    <t>文本情感分析</t>
-  </si>
-  <si>
-    <t>利用训练数据集，对模型训练，从而实现对中文评论语句情感分析。——情绪分为正面、负面两种</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-LSTM-长短期记忆（paddlepaddle）</t>
-  </si>
-  <si>
     <t>用一系列 "属性" 来描述一个词。
 这些“属性”的值是多少，是通过训练得到的。</t>
+  </si>
+  <si>
+    <t>AI-studio</t>
+  </si>
+  <si>
+    <t>“Word2Vec”是“NNLM-神经网络语言模型”的升级版</t>
+  </si>
+  <si>
+    <t>深度学习</t>
+  </si>
+  <si>
+    <t>新闻分类-新闻标题</t>
+  </si>
+  <si>
+    <r>
+      <t>数据格式：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词嵌入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+模型：Text CNN（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>卷积神经网络</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）
+框架：paddlepaddle</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>（1）需要</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词嵌入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+（2）数据集：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>56821条</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据集，包含</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10种</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类型
+（3）这里使用"字符级别"，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不分词</t>
+    </r>
+  </si>
+  <si>
+    <t>注意：Text CNN可以分词，也可以不分词，</t>
+  </si>
+  <si>
+    <t>当 "词汇多样性很大" 或者 "文本较短" 时，在"字符级别" 工作表现列优。</t>
+  </si>
+  <si>
+    <t>文本情感分析</t>
+  </si>
+  <si>
+    <t>利用训练数据集，对模型训练，从而实现对中文评论语句情感分析。——情绪分为正面、负面两种</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+模型：LSTM-长短期记忆（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>循环神经网络</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）
+框架：paddlepaddle</t>
+    </r>
   </si>
   <si>
     <t>参考md文件</t>
@@ -1442,7 +1609,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1509,23 +1676,38 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1841,10 +2023,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B8:K40"/>
+  <dimension ref="B2:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -1858,117 +2040,180 @@
     <col min="8" max="8" width="42.6017699115044" customWidth="1"/>
     <col min="9" max="9" width="43.4513274336283" customWidth="1"/>
     <col min="10" max="10" width="13.3628318584071" customWidth="1"/>
-    <col min="11" max="11" width="42.8407079646018" customWidth="1"/>
+    <col min="11" max="11" width="36.0796460176991" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" ht="54" customHeight="1" spans="2:11">
-      <c r="B8" s="1" t="s">
+    <row r="2" ht="54" customHeight="1" spans="2:11">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K2" s="2"/>
     </row>
-    <row r="9" ht="39" customHeight="1" spans="2:11">
-      <c r="B9" s="1"/>
-      <c r="C9" s="2" t="s">
+    <row r="3" ht="39" customHeight="1" spans="2:11">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K3" s="2"/>
     </row>
-    <row r="10" ht="62" customHeight="1" spans="2:11">
-      <c r="B10" s="1"/>
-      <c r="C10" s="6" t="s">
+    <row r="4" ht="62" customHeight="1" spans="2:11">
+      <c r="B4" s="1"/>
+      <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="8" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" ht="76" customHeight="1" spans="2:11">
-      <c r="B11" s="1"/>
-      <c r="C11" s="10" t="s">
+    <row r="5" ht="76" customHeight="1" spans="2:11">
+      <c r="B5" s="1"/>
+      <c r="C5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K5" s="12" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5">
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" ht="81" spans="2:11">
+      <c r="B8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" ht="110" customHeight="1" spans="3:11">
+      <c r="C11" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="5:5">
@@ -1977,179 +2222,114 @@
     <row r="13" spans="5:5">
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="5:5">
-      <c r="E14" s="14"/>
+    <row r="14" ht="59" customHeight="1" spans="2:11">
+      <c r="B14" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="32" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="15" ht="81" spans="2:11">
-      <c r="B15" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="16"/>
+    <row r="15" ht="34" customHeight="1" spans="5:5">
+      <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="5:5">
-      <c r="E16" s="14"/>
+    <row r="16" ht="54" customHeight="1" spans="2:11">
+      <c r="B16" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="25"/>
     </row>
-    <row r="17" spans="5:5">
+    <row r="17" ht="34" customHeight="1" spans="5:5">
       <c r="E17" s="14"/>
     </row>
-    <row r="18" ht="98" customHeight="1" spans="3:11">
-      <c r="C18" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="26" t="s">
-        <v>38</v>
-      </c>
+    <row r="18" ht="53" customHeight="1" spans="2:11">
+      <c r="B18" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="25"/>
     </row>
-    <row r="19" spans="5:5">
-      <c r="E19" s="14"/>
+    <row r="21" ht="43" customHeight="1" spans="3:11">
+      <c r="C21" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
     </row>
-    <row r="20" spans="5:5">
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="5:5">
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" ht="40" customHeight="1" spans="2:11">
-      <c r="B22" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="K22" s="25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" ht="34" customHeight="1" spans="5:5">
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" ht="54" customHeight="1" spans="2:11">
-      <c r="B24" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="J24" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="K24" s="22"/>
-    </row>
-    <row r="25" ht="34" customHeight="1" spans="5:5">
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" ht="53" customHeight="1" spans="2:11">
-      <c r="B26" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="J26" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="K26" s="22"/>
-    </row>
-    <row r="32" ht="43" customHeight="1" spans="3:11">
-      <c r="C32" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="H32" s="22"/>
-      <c r="I32" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-    </row>
-    <row r="33" ht="30" customHeight="1"/>
-    <row r="40" spans="7:7">
-      <c r="G40" t="s">
-        <v>55</v>
+    <row r="22" ht="30" customHeight="1"/>
+    <row r="29" spans="7:7">
+      <c r="G29" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B2:B5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/002.Artificial_Intelligence/011.nlp/nlp/案例场景.xlsx
+++ b/002.Artificial_Intelligence/011.nlp/nlp/案例场景.xlsx
@@ -373,7 +373,7 @@
     </r>
   </si>
   <si>
-    <t>分母+1 防止分母为0 ，拉普拉斯平滑
+    <t>（1）分母+1 防止分母为0 ，拉普拉斯平滑
 （2）TF-IDF:将文本转换成向量形式</t>
   </si>
   <si>
@@ -717,6 +717,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>数据格式：</t>
     </r>
     <r>
@@ -766,6 +773,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>（1）需要</t>
     </r>
     <r>
@@ -842,14 +856,37 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>不分词</t>
+      <t xml:space="preserve">不分词
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（4）需要划分</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>训练集和测试集</t>
     </r>
   </si>
   <si>
     <t>注意：Text CNN可以分词，也可以不分词，</t>
   </si>
   <si>
-    <t>当 "词汇多样性很大" 或者 "文本较短" 时，在"字符级别" 工作表现列优。</t>
+    <t>当 "词汇多样性很大" 或者 "文本较短" 时，在"字符级别" 工作表现更优。
+//这里是对标题编码</t>
   </si>
   <si>
     <t>文本情感分析</t>
@@ -2025,7 +2062,7 @@
   <sheetPr/>
   <dimension ref="B2:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -2040,7 +2077,7 @@
     <col min="8" max="8" width="42.6017699115044" customWidth="1"/>
     <col min="9" max="9" width="43.4513274336283" customWidth="1"/>
     <col min="10" max="10" width="13.3628318584071" customWidth="1"/>
-    <col min="11" max="11" width="36.0796460176991" customWidth="1"/>
+    <col min="11" max="11" width="39.1061946902655" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="54" customHeight="1" spans="2:11">
@@ -2127,7 +2164,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="76" customHeight="1" spans="2:11">
+    <row r="5" ht="52" customHeight="1" spans="2:11">
       <c r="B5" s="1"/>
       <c r="C5" s="10" t="s">
         <v>21</v>
@@ -2222,7 +2259,7 @@
     <row r="13" spans="5:5">
       <c r="E13" s="14"/>
     </row>
-    <row r="14" ht="59" customHeight="1" spans="2:11">
+    <row r="14" ht="69" customHeight="1" spans="2:11">
       <c r="B14" s="22" t="s">
         <v>40</v>
       </c>

--- a/002.Artificial_Intelligence/011.nlp/nlp/案例场景.xlsx
+++ b/002.Artificial_Intelligence/011.nlp/nlp/案例场景.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
   <si>
     <t>基础加工</t>
   </si>
@@ -931,6 +931,10 @@
   </si>
   <si>
     <t>参考md文件</t>
+  </si>
+  <si>
+    <t>只是模型与新闻分类不同，
+其它步骤都是一样的</t>
   </si>
   <si>
     <t>命名实体识别</t>
@@ -2062,8 +2066,8 @@
   <sheetPr/>
   <dimension ref="B2:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -2310,7 +2314,9 @@
       <c r="J16" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="25"/>
+      <c r="K16" s="26" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="17" ht="34" customHeight="1" spans="5:5">
       <c r="E17" s="14"/>
@@ -2320,21 +2326,21 @@
         <v>40</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H18" s="25"/>
       <c r="I18" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J18" s="33" t="s">
         <v>49</v>
@@ -2343,17 +2349,17 @@
     </row>
     <row r="21" ht="43" customHeight="1" spans="3:11">
       <c r="C21" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H21" s="25"/>
       <c r="I21" s="26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
@@ -2361,7 +2367,7 @@
     <row r="22" ht="30" customHeight="1"/>
     <row r="29" spans="7:7">
       <c r="G29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
